--- a/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\ItemRawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD83D12-0F71-490F-A0DB-5AD650BAE991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845E0D1-3FB1-43F5-A860-A346F06EF0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -63,611 +63,611 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>견습기사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_1_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_2_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_3_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_4_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 검 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱히 쓸만해 보이지는 않는다.첫 환생때는 이걸로 시작한거 같은데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 몇번 휘두르면 부서질 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아 보이긴하지만..마왕을 상대하는데는 부족해..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 검 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 검이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 검이 아직 있었다니..마왕한테도 통할것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 검이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 하도르의 검이군.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 검의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 검은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이시여.. 당신의 뜻을 받들겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 몇번 맞으면 부서질 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 갑옷 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 갑옷 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 갑옷이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 피를로의 갑옷.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 갑옷의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 갑옷이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 갑옷이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 갑옷은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 방패 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 방패 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 방패이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 조로의 갑옷.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 방패는 아주 훌룡한 대장장이가 만든것같아..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 방패이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 방패이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 방패은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용감이 안좋긴 하군..없는것 보다야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 죽은 견습기사의 부츠 같은데..난 언제쯤 죽으려나..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 부츠은 아니지만 상태는 좋군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습기사의 부츠 중에서 나름 괜찮은 상태를 보이고 있군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이게 견습기사의 부츠이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛 동료 파이의 부츠.. 잘쓰겠다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 부츠는 요정이 만든건가? 몸이 아주 가벼워 진 것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도가 상당한 부츠이군.. 이정도면..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 부츠가 아직 있었다니..마왕의 공격을 피할 수 있을 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 보다 좋은 부츠은 세상에 없을것이야!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Exp/exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sellPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_buyPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사냥꾼의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마스터의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사냥꾼의 갑옷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>마스터의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사냥꾼의 방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>견습기사의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 갑옷</t>
+    <t>마스터의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼의 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 방패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마스터의 방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 방패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 검(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 검(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 검(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 검(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 검(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 검(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 검(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 검(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 갑옷(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 갑옷(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 갑옷(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 갑옷(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 갑옷(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 갑옷(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 갑옷(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 갑옷(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 방패(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 방패(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 방패(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 방패(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 방패(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 방패(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 방패(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 방패(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_atkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_1_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_2_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_3_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_4_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_1_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_2_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_3_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Weapon/Sword_4_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_1_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_2_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_3_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Armor/Armor_4_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_1_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_2_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_3_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Shield/Shield_4_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_1_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_2_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_3_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Boots/Boots_4_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 죽은 견습기사의 검 같은데..난 언제쯤 죽으려나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딱히 쓸만해 보이지는 않는다.첫 환생때는 이걸로 시작한거 같은데..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 몇번 휘두르면 부서질 것 같은데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아 보이긴하지만..마왕을 상대하는데는 부족해..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 검 중에서 나름 괜찮은 상태를 보이고 있군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 견습기사의 검이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 검이 아직 있었다니..마왕한테도 통할것같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도가 상당한 검이군.. 이정도면..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛 동료 하도르의 검이군.. 잘쓰겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 검의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 보다 좋은 검은 세상에 없을것이야!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신이시여.. 당신의 뜻을 받들겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 몇번 맞으면 부서질 것 같은데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 죽은 견습기사의 갑옷 같은데..난 언제쯤 죽으려나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 갑옷 중에서 나름 괜찮은 상태를 보이고 있군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 견습기사의 갑옷이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛 동료 피를로의 갑옷.. 잘쓰겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 갑옷의 원래 주인은 지금 나로써도..감당가능 할지는 모르겠군..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도가 상당한 갑옷이군.. 이정도면..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 갑옷이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 보다 좋은 갑옷은 세상에 없을것이야!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 죽은 견습기사의 방패 같은데..난 언제쯤 죽으려나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 방패 중에서 나름 괜찮은 상태를 보이고 있군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 견습기사의 방패이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛 동료 조로의 갑옷.. 잘쓰겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 방패는 아주 훌룡한 대장장이가 만든것같아..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도가 상당한 방패이군.. 이정도면..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 방패이 아직 있었다니..마왕의 공격을 버텨줄 수 있을 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 보다 좋은 방패은 세상에 없을것이야!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착용감이 안좋긴 하군..없는것 보다야..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 죽은 견습기사의 부츠 같은데..난 언제쯤 죽으려나..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 부츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 부츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 부츠(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 부츠(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 부츠(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 부츠(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 부츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 부츠(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스터의 부츠(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 부츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 부츠(A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 부츠(S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 부츠은 아니지만 상태는 좋군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>견습기사의 부츠 중에서 나름 괜찮은 상태를 보이고 있군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 견습기사의 부츠이라고? 아마 꽤 쓸만한 기사였던것 같군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛 동료 파이의 부츠.. 잘쓰겠다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 부츠는 요정이 만든건가? 몸이 아주 가벼워 진 것같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도가 상당한 부츠이군.. 이정도면..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 부츠가 아직 있었다니..마왕의 공격을 피할 수 있을 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 보다 좋은 부츠은 세상에 없을것이야!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/Item/Exp/exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_sellPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_buyPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1050,7 @@
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1073,31 +1073,31 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1105,19 +1105,19 @@
         <v>10001001</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>10</v>
@@ -1130,10 +1130,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="N2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1141,22 +1141,22 @@
         <v>10001002</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>1.2</v>
@@ -1166,10 +1166,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="N3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O3">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1177,22 +1177,22 @@
         <v>10001003</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1">
         <v>1.3</v>
@@ -1202,10 +1202,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="N4">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="O4">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1213,22 +1213,22 @@
         <v>10001004</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1">
         <v>1.4</v>
@@ -1238,10 +1238,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="N5">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="O5">
-        <v>800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1249,22 +1249,22 @@
         <v>10001005</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1">
         <v>1.4</v>
@@ -1274,10 +1274,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="O6">
-        <v>750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1285,22 +1285,22 @@
         <v>10001006</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>1.5</v>
@@ -1310,10 +1310,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="N7">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="O7">
-        <v>900</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1321,22 +1321,22 @@
         <v>10001007</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
         <v>1.6</v>
@@ -1346,7 +1346,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O8">
         <v>1000</v>
@@ -1357,22 +1357,22 @@
         <v>10001008</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1">
         <v>1.6</v>
@@ -1382,10 +1382,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="N9">
-        <v>2300</v>
+        <v>15000</v>
       </c>
       <c r="O9">
-        <v>1150</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1393,22 +1393,22 @@
         <v>10001009</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1">
         <v>1.7</v>
@@ -1418,10 +1418,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="O10">
-        <v>1350</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1429,22 +1429,22 @@
         <v>10001010</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1">
         <v>1.8</v>
@@ -1454,10 +1454,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="N11">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O11">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1465,22 +1465,22 @@
         <v>10001011</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1">
         <v>1.8</v>
@@ -1490,10 +1490,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="N12">
-        <v>3500</v>
+        <v>22000</v>
       </c>
       <c r="O12">
-        <v>1750</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1501,22 +1501,22 @@
         <v>10001012</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1526,10 +1526,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="N13">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O13">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1537,33 +1537,33 @@
         <v>20001001</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1571,33 +1571,33 @@
         <v>20001002</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="N15">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O15">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1605,33 +1605,33 @@
         <v>20001003</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="N16">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="O16">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1639,33 +1639,33 @@
         <v>20001004</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="N17">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="O17">
-        <v>800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1673,33 +1673,33 @@
         <v>20001005</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="O18">
-        <v>750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1707,33 +1707,33 @@
         <v>20001006</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="O19">
-        <v>900</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1741,30 +1741,30 @@
         <v>20001007</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="N20">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O20">
         <v>1000</v>
@@ -1775,33 +1775,33 @@
         <v>20001008</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="N21">
-        <v>2300</v>
+        <v>15000</v>
       </c>
       <c r="O21">
-        <v>1150</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1809,33 +1809,33 @@
         <v>20001009</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="N22">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="O22">
-        <v>1350</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1843,33 +1843,33 @@
         <v>20001010</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O23">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1877,33 +1877,33 @@
         <v>20001011</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24">
-        <v>3500</v>
+        <v>22000</v>
       </c>
       <c r="O24">
-        <v>1750</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1911,33 +1911,33 @@
         <v>20001012</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O25">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1945,19 +1945,19 @@
         <v>30001001</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1968,10 +1968,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="N26">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O26">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1979,19 +1979,19 @@
         <v>30001002</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2002,10 +2002,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="N27">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O27">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2013,19 +2013,19 @@
         <v>30001003</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2036,10 +2036,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="N28">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="O28">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2047,19 +2047,19 @@
         <v>30001004</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2070,10 +2070,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="N29">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="O29">
-        <v>800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2081,19 +2081,19 @@
         <v>30001005</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2104,10 +2104,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="N30">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="O30">
-        <v>750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2115,19 +2115,19 @@
         <v>30001006</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2138,10 +2138,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="N31">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="O31">
-        <v>900</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2149,19 +2149,19 @@
         <v>30001007</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="N32">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O32">
         <v>1000</v>
@@ -2183,19 +2183,19 @@
         <v>30001008</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2206,10 +2206,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="N33">
-        <v>2300</v>
+        <v>15000</v>
       </c>
       <c r="O33">
-        <v>1150</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2217,19 +2217,19 @@
         <v>30001009</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2240,10 +2240,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="O34">
-        <v>1350</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2251,19 +2251,19 @@
         <v>30001010</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2274,10 +2274,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="N35">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O35">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -2285,19 +2285,19 @@
         <v>30001011</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2308,10 +2308,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="N36">
-        <v>3500</v>
+        <v>22000</v>
       </c>
       <c r="O36">
-        <v>1750</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2319,19 +2319,19 @@
         <v>30001012</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2342,10 +2342,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="N37">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O37">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -2353,19 +2353,19 @@
         <v>40001013</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2375,13 +2375,13 @@
         <v>1.2</v>
       </c>
       <c r="L38" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O38">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2389,19 +2389,19 @@
         <v>40001014</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2411,13 +2411,13 @@
         <v>1.2</v>
       </c>
       <c r="L39" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N39">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O39">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2425,19 +2425,19 @@
         <v>40001015</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2447,13 +2447,13 @@
         <v>1.2</v>
       </c>
       <c r="L40" s="1">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="O40">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2461,19 +2461,19 @@
         <v>40001016</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2486,10 +2486,10 @@
         <v>150</v>
       </c>
       <c r="N41">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="O41">
-        <v>800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2497,19 +2497,19 @@
         <v>40001017</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2522,10 +2522,10 @@
         <v>170</v>
       </c>
       <c r="N42">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="O42">
-        <v>750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2533,19 +2533,19 @@
         <v>40001018</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2558,10 +2558,10 @@
         <v>190</v>
       </c>
       <c r="N43">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="O43">
-        <v>900</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2569,19 +2569,19 @@
         <v>40001019</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2594,7 +2594,7 @@
         <v>200</v>
       </c>
       <c r="N44">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O44">
         <v>1000</v>
@@ -2605,19 +2605,19 @@
         <v>40001020</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2630,10 +2630,10 @@
         <v>220</v>
       </c>
       <c r="N45">
-        <v>2300</v>
+        <v>15000</v>
       </c>
       <c r="O45">
-        <v>1150</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2641,19 +2641,19 @@
         <v>40001021</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2666,10 +2666,10 @@
         <v>240</v>
       </c>
       <c r="N46">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="O46">
-        <v>1350</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2677,19 +2677,19 @@
         <v>40001022</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2702,10 +2702,10 @@
         <v>250</v>
       </c>
       <c r="N47">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O47">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2713,19 +2713,19 @@
         <v>40001023</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2738,10 +2738,10 @@
         <v>270</v>
       </c>
       <c r="N48">
-        <v>3500</v>
+        <v>22000</v>
       </c>
       <c r="O48">
-        <v>1750</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2749,19 +2749,19 @@
         <v>40001024</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2774,10 +2774,10 @@
         <v>300</v>
       </c>
       <c r="N49">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O49">
-        <v>2500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -2785,13 +2785,13 @@
         <v>50001000</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M50">
         <v>10</v>

--- a/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\ItemRawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845E0D1-3FB1-43F5-A860-A346F06EF0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF15FB7C-F79A-48F0-8A03-10F0306FE5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,10 +1238,10 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="N5">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O5">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1274,10 +1274,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O6">
-        <v>4500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1310,10 +1310,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="N7">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O7">
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>13000</v>
       </c>
       <c r="O8">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1385,7 +1385,7 @@
         <v>15000</v>
       </c>
       <c r="O9">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>18000</v>
       </c>
       <c r="O10">
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1662,10 +1662,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="N17">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O17">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1696,10 +1696,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O18">
-        <v>4500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1730,10 +1730,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O19">
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1767,7 +1767,7 @@
         <v>13000</v>
       </c>
       <c r="O20">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>15000</v>
       </c>
       <c r="O21">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1835,7 +1835,7 @@
         <v>18000</v>
       </c>
       <c r="O22">
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -2070,10 +2070,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="N29">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O29">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2104,10 +2104,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="N30">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O30">
-        <v>4500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2138,10 +2138,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="N31">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O31">
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2175,7 +2175,7 @@
         <v>13000</v>
       </c>
       <c r="O32">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
         <v>15000</v>
       </c>
       <c r="O33">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>18000</v>
       </c>
       <c r="O34">
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2486,10 +2486,10 @@
         <v>150</v>
       </c>
       <c r="N41">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O41">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
         <v>170</v>
       </c>
       <c r="N42">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O42">
-        <v>4500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2558,10 +2558,10 @@
         <v>190</v>
       </c>
       <c r="N43">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="O43">
-        <v>5500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>13000</v>
       </c>
       <c r="O44">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2633,7 +2633,7 @@
         <v>15000</v>
       </c>
       <c r="O45">
-        <v>7000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>18000</v>
       </c>
       <c r="O46">
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">

--- a/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\ItemRawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF15FB7C-F79A-48F0-8A03-10F0306FE5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA47AB-A986-4F6C-A2A0-5BC139F11086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="196">
   <si>
     <t>_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이런 검이 아직 있었다니..마왕한테도 통할것같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내구도가 상당한 검이군.. 이정도면..!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +664,150 @@
   </si>
   <si>
     <t>마스터의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 검(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 검(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>God</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설로만 듣던 검이…!!마왕한테도 통할것같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전 선조분들이 이 검으로 악마를 썰었다고하지..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 검이다. 그 어떤 물체라도 베어 낼 수 있을것같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 검이다. 영혼마저도 베어 낼 수 있을것같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 실패하는 당신을 보며, 신이 내린 기적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 갑옷(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 갑옷(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 방패이다. 그 어떤 공격도 방어할 수 있을 것같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 갑옷이다. 그 어떤 공격도 방어할 수 있을 것같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 갑옷이다. 신의검에 찔리면 어떻게되는거지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 방패(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 방패(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 방패이다. 신의검에 찔리면 어떻게되는거지..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 부츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 부츠(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 부츠(S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 부츠이다. 이건…마치 몸에 날개가 달린것 같군..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신이 내려준 부츠이다. 이거.. 게임이 너무 쉬워지는거 아닐까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_5_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_5_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Shield/Shield_5_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_5_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Boots/Boots_5_S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,13 +1231,13 @@
         <v>62</v>
       </c>
       <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s">
         <v>146</v>
-      </c>
-      <c r="N1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1111,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
         <v>96</v>
@@ -1195,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1231,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1267,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1303,7 +1443,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="1">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1327,10 +1467,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1339,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1366,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -1375,7 +1515,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="1">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1402,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
@@ -1411,7 +1551,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="1">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1435,10 +1575,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1471,10 +1611,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1507,10 +1647,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1519,7 +1659,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1534,1266 +1674,1686 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>20001001</v>
+        <v>10001013</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>50</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G14" s="1">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="O14">
-        <v>500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>20001002</v>
+        <v>10001014</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>55</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G15" s="1">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="N15">
-        <v>1500</v>
+        <v>88000</v>
       </c>
       <c r="O15">
-        <v>750</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20001003</v>
+        <v>10001015</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>60</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="N16">
-        <v>1800</v>
+        <v>99000</v>
       </c>
       <c r="O16">
-        <v>900</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>20001004</v>
+        <v>20001001</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="N17">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="O17">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="N18">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="O18">
-        <v>2250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>20001006</v>
+        <v>20001003</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="O19">
-        <v>2750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20001007</v>
+        <v>20001004</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="N20">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O20">
-        <v>6500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="N21">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O21">
-        <v>7500</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20001009</v>
+        <v>20001006</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="N22">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="O22">
-        <v>9000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>20001010</v>
+        <v>20001007</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O23">
-        <v>10000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20001011</v>
+        <v>20001008</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O24">
-        <v>11000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>20001012</v>
+        <v>20001009</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O25">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30001001</v>
+        <v>20001010</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <v>10</v>
-      </c>
+      <c r="I26" s="1">
+        <v>110</v>
+      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="N26">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="O26">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>30001002</v>
+        <v>20001011</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <v>12</v>
-      </c>
+      <c r="I27" s="1">
+        <v>150</v>
+      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="N27">
-        <v>1500</v>
+        <v>22000</v>
       </c>
       <c r="O27">
-        <v>750</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>30001003</v>
+        <v>20001012</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
-        <v>14</v>
-      </c>
+      <c r="I28" s="1">
+        <v>200</v>
+      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="N28">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="O28">
-        <v>900</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>30001004</v>
+        <v>20001013</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1">
-        <v>15</v>
-      </c>
+      <c r="I29" s="1">
+        <v>220</v>
+      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="N29">
-        <v>4000</v>
+        <v>80000</v>
       </c>
       <c r="O29">
-        <v>2000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30001005</v>
+        <v>20001014</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
-        <v>17</v>
-      </c>
+      <c r="I30" s="1">
+        <v>240</v>
+      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="N30">
-        <v>4500</v>
+        <v>88000</v>
       </c>
       <c r="O30">
-        <v>2250</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30001006</v>
+        <v>20001015</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1">
-        <v>19</v>
-      </c>
+      <c r="I31" s="1">
+        <v>260</v>
+      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="N31">
-        <v>5500</v>
+        <v>99000</v>
       </c>
       <c r="O31">
-        <v>2750</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30001007</v>
+        <v>30001001</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="N32">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="O32">
-        <v>6500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>30001008</v>
+        <v>30001002</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="N33">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="O33">
-        <v>7500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30001009</v>
+        <v>30001003</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="N34">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="O34">
-        <v>9000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>30001010</v>
+        <v>30001004</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="N35">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O35">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>30001011</v>
+        <v>30001005</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="N36">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="O36">
-        <v>11000</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>30001012</v>
+        <v>30001006</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="N37">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="O37">
-        <v>12500</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>40001013</v>
+        <v>30001007</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="L38" s="1">
-        <v>25</v>
-      </c>
+      <c r="J38" s="1">
+        <v>20</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="N38">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="O38">
-        <v>500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>40001014</v>
+        <v>30001008</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="L39" s="1">
-        <v>30</v>
-      </c>
+      <c r="J39" s="1">
+        <v>22</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="N39">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="O39">
-        <v>750</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40001015</v>
+        <v>30001009</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>35</v>
-      </c>
+      <c r="J40" s="1">
+        <v>24</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
       <c r="N40">
-        <v>1800</v>
+        <v>18000</v>
       </c>
       <c r="O40">
-        <v>900</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40001016</v>
+        <v>30001010</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L41" s="1">
-        <v>150</v>
-      </c>
+      <c r="J41" s="1">
+        <v>25</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="N41">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="O41">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40001017</v>
+        <v>30001011</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L42" s="1">
-        <v>170</v>
-      </c>
+      <c r="J42" s="1">
+        <v>27</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
       <c r="N42">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="O42">
-        <v>2250</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>40001018</v>
+        <v>30001012</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L43" s="1">
-        <v>190</v>
-      </c>
+      <c r="J43" s="1">
+        <v>30</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="N43">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="O43">
-        <v>2750</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40001019</v>
+        <v>30001013</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L44" s="1">
-        <v>200</v>
-      </c>
+      <c r="J44" s="1">
+        <v>35</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="N44">
-        <v>13000</v>
+        <v>80000</v>
       </c>
       <c r="O44">
-        <v>6500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>40001020</v>
+        <v>30001014</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L45" s="1">
-        <v>220</v>
-      </c>
+      <c r="J45" s="1">
+        <v>38</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
       <c r="N45">
-        <v>15000</v>
+        <v>88000</v>
       </c>
       <c r="O45">
-        <v>7500</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>40001021</v>
+        <v>30001015</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="L46" s="1">
-        <v>240</v>
-      </c>
+      <c r="J46" s="1">
+        <v>42</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="N46">
-        <v>18000</v>
+        <v>99000</v>
       </c>
       <c r="O46">
-        <v>9000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>40001022</v>
+        <v>40001001</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
         <v>157</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L47" s="1">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N47">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="O47">
-        <v>10000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>40001023</v>
+        <v>40001002</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L48" s="1">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>22000</v>
+        <v>1500</v>
       </c>
       <c r="O48">
-        <v>11000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>40001024</v>
+        <v>40001003</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
         <v>134</v>
       </c>
-      <c r="E49" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L49" s="1">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="N49">
-        <v>25000</v>
+        <v>1800</v>
       </c>
       <c r="O49">
-        <v>12500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>40001004</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L50" s="1">
+        <v>150</v>
+      </c>
+      <c r="N50">
+        <v>4000</v>
+      </c>
+      <c r="O50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>40001005</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>170</v>
+      </c>
+      <c r="N51">
+        <v>4500</v>
+      </c>
+      <c r="O51">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>40001006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L52" s="1">
+        <v>190</v>
+      </c>
+      <c r="N52">
+        <v>5500</v>
+      </c>
+      <c r="O52">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>40001007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L53" s="1">
+        <v>200</v>
+      </c>
+      <c r="N53">
+        <v>13000</v>
+      </c>
+      <c r="O53">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>40001008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L54" s="1">
+        <v>220</v>
+      </c>
+      <c r="N54">
+        <v>15000</v>
+      </c>
+      <c r="O54">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>40001009</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="L55" s="1">
+        <v>240</v>
+      </c>
+      <c r="N55">
+        <v>18000</v>
+      </c>
+      <c r="O55">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>40001010</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L56" s="1">
+        <v>250</v>
+      </c>
+      <c r="N56">
+        <v>20000</v>
+      </c>
+      <c r="O56">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>40001011</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L57" s="1">
+        <v>270</v>
+      </c>
+      <c r="N57">
+        <v>22000</v>
+      </c>
+      <c r="O57">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>40001012</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="L58" s="1">
+        <v>300</v>
+      </c>
+      <c r="N58">
+        <v>25000</v>
+      </c>
+      <c r="O58">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>40001013</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1">
+        <v>2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>330</v>
+      </c>
+      <c r="N59">
+        <v>80000</v>
+      </c>
+      <c r="O59">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>40001014</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1">
+        <v>350</v>
+      </c>
+      <c r="N60">
+        <v>88000</v>
+      </c>
+      <c r="O60">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>40001015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>380</v>
+      </c>
+      <c r="N61">
+        <v>99000</v>
+      </c>
+      <c r="O61">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>50001000</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F62" t="s">
         <v>144</v>
       </c>
-      <c r="F50" t="s">
-        <v>145</v>
-      </c>
-      <c r="M50">
+      <c r="M62">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
+++ b/Assets/Scripts/Item/ItemRawData/ItemDBSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMS\Desktop\Mementomori\Assets\Scripts\Item\ItemRawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA47AB-A986-4F6C-A2A0-5BC139F11086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD61BB5-7BFF-446A-AB8F-D3BAFDF513C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEB29282-1E6A-43A2-9D10-8454725A0340}"/>
   </bookViews>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9413D641-5D00-473F-AAE5-77EBB53F717C}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1486,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O8">
-        <v>6500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1522,10 +1522,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="N9">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O9">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="N10">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O10">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1594,10 +1594,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="N11">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O11">
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1630,10 +1630,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="N12">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O12">
-        <v>11000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1666,10 +1666,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="N13">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O13">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1702,10 +1702,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="O14">
-        <v>40000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1738,10 +1738,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="N15">
-        <v>88000</v>
+        <v>20000</v>
       </c>
       <c r="O15">
-        <v>44000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1774,10 +1774,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="N16">
-        <v>99000</v>
+        <v>22000</v>
       </c>
       <c r="O16">
-        <v>50000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2012,10 +2012,10 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="N23">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O23">
-        <v>6500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2046,10 +2046,10 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="N24">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O24">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -2080,10 +2080,10 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="N25">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O25">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2114,10 +2114,10 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="N26">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O26">
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="N27">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O27">
-        <v>11000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2182,10 +2182,10 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="N28">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O28">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2216,10 +2216,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="N29">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="O29">
-        <v>40000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2250,10 +2250,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="N30">
-        <v>88000</v>
+        <v>20000</v>
       </c>
       <c r="O30">
-        <v>44000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2284,10 +2284,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="N31">
-        <v>99000</v>
+        <v>22000</v>
       </c>
       <c r="O31">
-        <v>50000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="N38">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O38">
-        <v>6500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2556,10 +2556,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="N39">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O39">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2590,10 +2590,10 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="N40">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O40">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="N41">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O41">
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2658,10 +2658,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="N42">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O42">
-        <v>11000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -2692,10 +2692,10 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="N43">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O43">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2726,10 +2726,10 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="N44">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="O44">
-        <v>40000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="N45">
-        <v>88000</v>
+        <v>20000</v>
       </c>
       <c r="O45">
-        <v>44000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2794,10 +2794,10 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="N46">
-        <v>99000</v>
+        <v>22000</v>
       </c>
       <c r="O46">
-        <v>50000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -3046,10 +3046,10 @@
         <v>200</v>
       </c>
       <c r="N53">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O53">
-        <v>6500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3082,10 +3082,10 @@
         <v>220</v>
       </c>
       <c r="N54">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O54">
-        <v>7500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -3118,10 +3118,10 @@
         <v>240</v>
       </c>
       <c r="N55">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O55">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -3154,10 +3154,10 @@
         <v>250</v>
       </c>
       <c r="N56">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O56">
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3190,10 +3190,10 @@
         <v>270</v>
       </c>
       <c r="N57">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O57">
-        <v>11000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3226,10 +3226,10 @@
         <v>300</v>
       </c>
       <c r="N58">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O58">
-        <v>12500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3262,10 +3262,10 @@
         <v>330</v>
       </c>
       <c r="N59">
-        <v>80000</v>
+        <v>19000</v>
       </c>
       <c r="O59">
-        <v>40000</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3298,10 +3298,10 @@
         <v>350</v>
       </c>
       <c r="N60">
-        <v>88000</v>
+        <v>20000</v>
       </c>
       <c r="O60">
-        <v>44000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3334,10 +3334,10 @@
         <v>380</v>
       </c>
       <c r="N61">
-        <v>99000</v>
+        <v>22000</v>
       </c>
       <c r="O61">
-        <v>50000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
